--- a/News Website Dataset.xlsx
+++ b/News Website Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saira\Documents\MVA_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEE3CD8-BB7D-4718-81C7-03EA2D3DC0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FE2EE4-1DAA-4325-AFEE-1FAEFEDD6374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -192,9 +192,9 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,16 +415,16 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="149" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17" style="8" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="10" width="11" style="5" customWidth="1"/>
@@ -444,13 +444,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>31</v>
@@ -476,13 +476,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>3.12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H2" s="1">
         <v>500</v>
@@ -509,13 +509,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>1.2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H3" s="1">
         <v>200</v>
@@ -542,13 +542,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>2.58</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H4" s="1">
         <v>100</v>
@@ -575,13 +575,13 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>4</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="1">
         <v>300</v>
@@ -608,13 +608,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H6" s="1">
         <v>150</v>
@@ -641,13 +641,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>3.12</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H7" s="1">
         <v>500</v>
@@ -674,13 +674,13 @@
         <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>1.2</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H8" s="1">
         <v>200</v>
@@ -707,13 +707,13 @@
         <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>2.58</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H9" s="1">
         <v>100</v>
@@ -740,13 +740,13 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>4</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H10" s="1">
         <v>300</v>
@@ -773,13 +773,13 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>1</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H11" s="1">
         <v>150</v>
@@ -806,13 +806,13 @@
         <v>4</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>3.12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H12" s="1">
         <v>500</v>
@@ -839,13 +839,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>1.2</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H13" s="1">
         <v>200</v>
@@ -872,13 +872,13 @@
         <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <v>2.58</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H14" s="1">
         <v>100</v>
@@ -905,13 +905,13 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>4</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H15" s="1">
         <v>300</v>
@@ -938,13 +938,13 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="6">
+      <c r="G16" s="6">
         <v>1</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H16" s="1">
         <v>150</v>
@@ -971,13 +971,13 @@
         <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="6">
+      <c r="G17" s="6">
         <v>3.12</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H17" s="1">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="6">
+      <c r="G18" s="6">
         <v>1.2</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="H18" s="1">
         <v>200</v>
@@ -1037,13 +1037,13 @@
         <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="6">
+      <c r="G19" s="6">
         <v>2.58</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="H19" s="1">
         <v>100</v>
@@ -1070,13 +1070,13 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="6">
+      <c r="G20" s="6">
         <v>4</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="H20" s="1">
         <v>300</v>
@@ -1103,13 +1103,13 @@
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="6">
+      <c r="G21" s="6">
         <v>1</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="H21" s="1">
         <v>150</v>
@@ -1123,43 +1123,43 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
       <c r="I31" s="3"/>
     </row>
   </sheetData>

--- a/News Website Dataset.xlsx
+++ b/News Website Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saira\Documents\MVA_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FE2EE4-1DAA-4325-AFEE-1FAEFEDD6374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A18CB9-DB06-4669-A23E-17E0C03E49AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/News Website Dataset.xlsx
+++ b/News Website Dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saira\Documents\MVA_Project1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A18CB9-DB06-4669-A23E-17E0C03E49AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF610A4-3164-4669-88BF-66CBDB022877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J2" sqref="J2:J161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
